--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.304346492204</v>
+        <v>113.3752785</v>
       </c>
       <c r="H2">
-        <v>109.304346492204</v>
+        <v>226.750557</v>
       </c>
       <c r="I2">
-        <v>0.06524927292948618</v>
+        <v>0.06376184507388981</v>
       </c>
       <c r="J2">
-        <v>0.06524927292948618</v>
+        <v>0.04522517177062929</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.7698411407019</v>
+        <v>6.834606</v>
       </c>
       <c r="N2">
-        <v>6.7698411407019</v>
+        <v>13.669212</v>
       </c>
       <c r="O2">
-        <v>0.6074051537697821</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P2">
-        <v>0.6074051537697821</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q2">
-        <v>739.9730617404581</v>
+        <v>774.875358687771</v>
       </c>
       <c r="R2">
-        <v>739.9730617404581</v>
+        <v>3099.501434751084</v>
       </c>
       <c r="S2">
-        <v>0.03963274465710103</v>
+        <v>0.03698357209851746</v>
       </c>
       <c r="T2">
-        <v>0.03963274465710103</v>
+        <v>0.02231346939911993</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.304346492204</v>
+        <v>113.3752785</v>
       </c>
       <c r="H3">
-        <v>109.304346492204</v>
+        <v>226.750557</v>
       </c>
       <c r="I3">
-        <v>0.06524927292948618</v>
+        <v>0.06376184507388981</v>
       </c>
       <c r="J3">
-        <v>0.06524927292948618</v>
+        <v>0.04522517177062929</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.829257075142636</v>
+        <v>0.856297</v>
       </c>
       <c r="N3">
-        <v>0.829257075142636</v>
+        <v>2.568891</v>
       </c>
       <c r="O3">
-        <v>0.07440278298605235</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P3">
-        <v>0.07440278298605235</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q3">
-        <v>90.64140267250234</v>
+        <v>97.08291085371451</v>
       </c>
       <c r="R3">
-        <v>90.64140267250234</v>
+        <v>582.4974651222869</v>
       </c>
       <c r="S3">
-        <v>0.00485472749377026</v>
+        <v>0.004633613384186917</v>
       </c>
       <c r="T3">
-        <v>0.00485472749377026</v>
+        <v>0.004193429051958123</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.304346492204</v>
+        <v>113.3752785</v>
       </c>
       <c r="H4">
-        <v>109.304346492204</v>
+        <v>226.750557</v>
       </c>
       <c r="I4">
-        <v>0.06524927292948618</v>
+        <v>0.06376184507388981</v>
       </c>
       <c r="J4">
-        <v>0.06524927292948618</v>
+        <v>0.04522517177062929</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.73648285676271</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N4">
-        <v>2.73648285676271</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O4">
-        <v>0.2455233078376184</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P4">
-        <v>0.2455233078376184</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q4">
-        <v>299.1094703455676</v>
+        <v>31.6136004486995</v>
       </c>
       <c r="R4">
-        <v>299.1094703455676</v>
+        <v>189.681602692197</v>
       </c>
       <c r="S4">
-        <v>0.01602021732364702</v>
+        <v>0.001508867017617106</v>
       </c>
       <c r="T4">
-        <v>0.01602021732364702</v>
+        <v>0.001365527561882953</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>109.304346492204</v>
+        <v>113.3752785</v>
       </c>
       <c r="H5">
-        <v>109.304346492204</v>
+        <v>226.750557</v>
       </c>
       <c r="I5">
-        <v>0.06524927292948618</v>
+        <v>0.06376184507388981</v>
       </c>
       <c r="J5">
-        <v>0.06524927292948618</v>
+        <v>0.04522517177062929</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.809930450773398</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N5">
-        <v>0.809930450773398</v>
+        <v>0.162391</v>
       </c>
       <c r="O5">
-        <v>0.07266875540654688</v>
+        <v>0.004593832943842499</v>
       </c>
       <c r="P5">
-        <v>0.07266875540654688</v>
+        <v>0.005861453899438226</v>
       </c>
       <c r="Q5">
-        <v>88.52891862592247</v>
+        <v>6.137041616964501</v>
       </c>
       <c r="R5">
-        <v>88.52891862592247</v>
+        <v>36.822249701787</v>
       </c>
       <c r="S5">
-        <v>0.004741583454967852</v>
+        <v>0.0002929112644606166</v>
       </c>
       <c r="T5">
-        <v>0.004741583454967852</v>
+        <v>0.0002650852594277186</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1294.40133208617</v>
+        <v>113.3752785</v>
       </c>
       <c r="H6">
-        <v>1294.40133208617</v>
+        <v>226.750557</v>
       </c>
       <c r="I6">
-        <v>0.7726933878480751</v>
+        <v>0.06376184507388981</v>
       </c>
       <c r="J6">
-        <v>0.7726933878480751</v>
+        <v>0.04522517177062929</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.7698411407019</v>
+        <v>2.949111</v>
       </c>
       <c r="N6">
-        <v>6.7698411407019</v>
+        <v>8.847333000000001</v>
       </c>
       <c r="O6">
-        <v>0.6074051537697821</v>
+        <v>0.2502796940750712</v>
       </c>
       <c r="P6">
-        <v>0.6074051537697821</v>
+        <v>0.319341801654516</v>
       </c>
       <c r="Q6">
-        <v>8762.891390536297</v>
+        <v>334.3562809524136</v>
       </c>
       <c r="R6">
-        <v>8762.891390536297</v>
+        <v>2006.137685714481</v>
       </c>
       <c r="S6">
-        <v>0.4693379460627539</v>
+        <v>0.01595829507875523</v>
       </c>
       <c r="T6">
-        <v>0.4693379460627539</v>
+        <v>0.01444228783336771</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1294.40133208617</v>
+        <v>113.3752785</v>
       </c>
       <c r="H7">
-        <v>1294.40133208617</v>
+        <v>226.750557</v>
       </c>
       <c r="I7">
-        <v>0.7726933878480751</v>
+        <v>0.06376184507388981</v>
       </c>
       <c r="J7">
-        <v>0.7726933878480751</v>
+        <v>0.04522517177062929</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.829257075142636</v>
+        <v>0.8102765000000001</v>
       </c>
       <c r="N7">
-        <v>0.829257075142636</v>
+        <v>1.620553</v>
       </c>
       <c r="O7">
-        <v>0.07440278298605235</v>
+        <v>0.06876504632623846</v>
       </c>
       <c r="P7">
-        <v>0.07440278298605235</v>
+        <v>0.05849336909740267</v>
       </c>
       <c r="Q7">
-        <v>1073.391462706509</v>
+        <v>91.86532384950526</v>
       </c>
       <c r="R7">
-        <v>1073.391462706509</v>
+        <v>367.461295398021</v>
       </c>
       <c r="S7">
-        <v>0.05749053845081791</v>
+        <v>0.004384586230352473</v>
       </c>
       <c r="T7">
-        <v>0.05749053845081791</v>
+        <v>0.002645372664872855</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1294.40133208617</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H8">
-        <v>1294.40133208617</v>
+        <v>4142.81842</v>
       </c>
       <c r="I8">
-        <v>0.7726933878480751</v>
+        <v>0.7766353469649819</v>
       </c>
       <c r="J8">
-        <v>0.7726933878480751</v>
+        <v>0.8262809897266405</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.73648285676271</v>
+        <v>6.834606</v>
       </c>
       <c r="N8">
-        <v>2.73648285676271</v>
+        <v>13.669212</v>
       </c>
       <c r="O8">
-        <v>0.2455233078376184</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P8">
-        <v>0.2455233078376184</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q8">
-        <v>3542.10705502462</v>
+        <v>9438.177210080839</v>
       </c>
       <c r="R8">
-        <v>3542.10705502462</v>
+        <v>56629.06326048503</v>
       </c>
       <c r="S8">
-        <v>0.1897142365287152</v>
+        <v>0.4504692314886976</v>
       </c>
       <c r="T8">
-        <v>0.1897142365287152</v>
+        <v>0.4076755235524311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1294.40133208617</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H9">
-        <v>1294.40133208617</v>
+        <v>4142.81842</v>
       </c>
       <c r="I9">
-        <v>0.7726933878480751</v>
+        <v>0.7766353469649819</v>
       </c>
       <c r="J9">
-        <v>0.7726933878480751</v>
+        <v>0.8262809897266405</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.809930450773398</v>
+        <v>0.856297</v>
       </c>
       <c r="N9">
-        <v>0.809930450773398</v>
+        <v>2.568891</v>
       </c>
       <c r="O9">
-        <v>0.07266875540654688</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P9">
-        <v>0.07266875540654688</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q9">
-        <v>1048.375054378238</v>
+        <v>1182.494328196913</v>
       </c>
       <c r="R9">
-        <v>1048.375054378238</v>
+        <v>10642.44895377222</v>
       </c>
       <c r="S9">
-        <v>0.05615066680578783</v>
+        <v>0.05643857912454314</v>
       </c>
       <c r="T9">
-        <v>0.05615066680578783</v>
+        <v>0.07661553448539157</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.616832947021682</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H10">
-        <v>0.616832947021682</v>
+        <v>4142.81842</v>
       </c>
       <c r="I10">
-        <v>0.0003682186720268041</v>
+        <v>0.7766353469649819</v>
       </c>
       <c r="J10">
-        <v>0.0003682186720268041</v>
+        <v>0.8262809897266405</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>6.7698411407019</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N10">
-        <v>6.7698411407019</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O10">
-        <v>0.6074051537697821</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P10">
-        <v>0.6074051537697821</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q10">
-        <v>4.175861061687779</v>
+        <v>385.0616230574244</v>
       </c>
       <c r="R10">
-        <v>4.175861061687779</v>
+        <v>3465.55460751682</v>
       </c>
       <c r="S10">
-        <v>0.0002236579191033459</v>
+        <v>0.01837838065057721</v>
       </c>
       <c r="T10">
-        <v>0.0002236579191033459</v>
+        <v>0.02494870491712348</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.616832947021682</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H11">
-        <v>0.616832947021682</v>
+        <v>4142.81842</v>
       </c>
       <c r="I11">
-        <v>0.0003682186720268041</v>
+        <v>0.7766353469649819</v>
       </c>
       <c r="J11">
-        <v>0.0003682186720268041</v>
+        <v>0.8262809897266405</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.829257075142636</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N11">
-        <v>0.829257075142636</v>
+        <v>0.162391</v>
       </c>
       <c r="O11">
-        <v>0.07440278298605235</v>
+        <v>0.004593832943842499</v>
       </c>
       <c r="P11">
-        <v>0.07440278298605235</v>
+        <v>0.005861453899438226</v>
       </c>
       <c r="Q11">
-        <v>0.5115130854988126</v>
+        <v>74.7507140046911</v>
       </c>
       <c r="R11">
-        <v>0.5115130854988126</v>
+        <v>672.7564260422199</v>
       </c>
       <c r="S11">
-        <v>2.739649394622269E-05</v>
+        <v>0.003567733042240283</v>
       </c>
       <c r="T11">
-        <v>2.739649394622269E-05</v>
+        <v>0.004843207929264894</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.616832947021682</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H12">
-        <v>0.616832947021682</v>
+        <v>4142.81842</v>
       </c>
       <c r="I12">
-        <v>0.0003682186720268041</v>
+        <v>0.7766353469649819</v>
       </c>
       <c r="J12">
-        <v>0.0003682186720268041</v>
+        <v>0.8262809897266405</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.73648285676271</v>
+        <v>2.949111</v>
       </c>
       <c r="N12">
-        <v>2.73648285676271</v>
+        <v>8.847333000000001</v>
       </c>
       <c r="O12">
-        <v>0.2455233078376184</v>
+        <v>0.2502796940750712</v>
       </c>
       <c r="P12">
-        <v>0.2455233078376184</v>
+        <v>0.319341801654516</v>
       </c>
       <c r="Q12">
-        <v>1.687952785011254</v>
+        <v>4072.54379114154</v>
       </c>
       <c r="R12">
-        <v>1.687952785011254</v>
+        <v>36652.89412027386</v>
       </c>
       <c r="S12">
-        <v>9.040626636359608E-05</v>
+        <v>0.1943760570462825</v>
       </c>
       <c r="T12">
-        <v>9.040626636359608E-05</v>
+        <v>0.263866059932182</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.616832947021682</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H13">
-        <v>0.616832947021682</v>
+        <v>4142.81842</v>
       </c>
       <c r="I13">
-        <v>0.0003682186720268041</v>
+        <v>0.7766353469649819</v>
       </c>
       <c r="J13">
-        <v>0.0003682186720268041</v>
+        <v>0.8262809897266405</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.809930450773398</v>
+        <v>0.8102765000000001</v>
       </c>
       <c r="N13">
-        <v>0.809930450773398</v>
+        <v>1.620553</v>
       </c>
       <c r="O13">
-        <v>0.07266875540654688</v>
+        <v>0.06876504632623846</v>
       </c>
       <c r="P13">
-        <v>0.07266875540654688</v>
+        <v>0.05849336909740267</v>
       </c>
       <c r="Q13">
-        <v>0.4995917868331544</v>
+        <v>1118.942803164377</v>
       </c>
       <c r="R13">
-        <v>0.4995917868331544</v>
+        <v>6713.65681898626</v>
       </c>
       <c r="S13">
-        <v>2.675799261363933E-05</v>
+        <v>0.05340536561264127</v>
       </c>
       <c r="T13">
-        <v>2.675799261363933E-05</v>
+        <v>0.04833195891024757</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.90690506178943</v>
+        <v>1.722832</v>
       </c>
       <c r="H14">
-        <v>3.90690506178943</v>
+        <v>5.168496</v>
       </c>
       <c r="I14">
-        <v>0.002332228523999927</v>
+        <v>0.000968914462885661</v>
       </c>
       <c r="J14">
-        <v>0.002332228523999927</v>
+        <v>0.00103085135705228</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.7698411407019</v>
+        <v>6.834606</v>
       </c>
       <c r="N14">
-        <v>6.7698411407019</v>
+        <v>13.669212</v>
       </c>
       <c r="O14">
-        <v>0.6074051537697821</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P14">
-        <v>0.6074051537697821</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q14">
-        <v>26.44912662011858</v>
+        <v>11.774877924192</v>
       </c>
       <c r="R14">
-        <v>26.44912662011858</v>
+        <v>70.649267545152</v>
       </c>
       <c r="S14">
-        <v>0.001416607625246448</v>
+        <v>0.0005619962511107132</v>
       </c>
       <c r="T14">
-        <v>0.001416607625246448</v>
+        <v>0.000508607691470737</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.90690506178943</v>
+        <v>1.722832</v>
       </c>
       <c r="H15">
-        <v>3.90690506178943</v>
+        <v>5.168496</v>
       </c>
       <c r="I15">
-        <v>0.002332228523999927</v>
+        <v>0.000968914462885661</v>
       </c>
       <c r="J15">
-        <v>0.002332228523999927</v>
+        <v>0.00103085135705228</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.829257075142636</v>
+        <v>0.856297</v>
       </c>
       <c r="N15">
-        <v>0.829257075142636</v>
+        <v>2.568891</v>
       </c>
       <c r="O15">
-        <v>0.07440278298605235</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P15">
-        <v>0.07440278298605235</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q15">
-        <v>3.239828664399462</v>
+        <v>1.475255873104</v>
       </c>
       <c r="R15">
-        <v>3.239828664399462</v>
+        <v>13.277302857936</v>
       </c>
       <c r="S15">
-        <v>0.0001735242927450478</v>
+        <v>7.041162341140812E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001735242927450478</v>
+        <v>9.558398254046782E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.90690506178943</v>
+        <v>1.722832</v>
       </c>
       <c r="H16">
-        <v>3.90690506178943</v>
+        <v>5.168496</v>
       </c>
       <c r="I16">
-        <v>0.002332228523999927</v>
+        <v>0.000968914462885661</v>
       </c>
       <c r="J16">
-        <v>0.002332228523999927</v>
+        <v>0.00103085135705228</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.73648285676271</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N16">
-        <v>2.73648285676271</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O16">
-        <v>0.2455233078376184</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P16">
-        <v>0.2455233078376184</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q16">
-        <v>10.69117872458623</v>
+        <v>0.4803950491573334</v>
       </c>
       <c r="R16">
-        <v>10.69117872458623</v>
+        <v>4.323555442416001</v>
       </c>
       <c r="S16">
-        <v>0.0005726164618457087</v>
+        <v>2.292849390173991E-05</v>
       </c>
       <c r="T16">
-        <v>0.0005726164618457087</v>
+        <v>3.112549682284483E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.90690506178943</v>
+        <v>1.722832</v>
       </c>
       <c r="H17">
-        <v>3.90690506178943</v>
+        <v>5.168496</v>
       </c>
       <c r="I17">
-        <v>0.002332228523999927</v>
+        <v>0.000968914462885661</v>
       </c>
       <c r="J17">
-        <v>0.002332228523999927</v>
+        <v>0.00103085135705228</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.809930450773398</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N17">
-        <v>0.809930450773398</v>
+        <v>0.162391</v>
       </c>
       <c r="O17">
-        <v>0.07266875540654688</v>
+        <v>0.004593832943842499</v>
       </c>
       <c r="P17">
-        <v>0.07266875540654688</v>
+        <v>0.005861453899438226</v>
       </c>
       <c r="Q17">
-        <v>3.164321377823983</v>
+        <v>0.09325747043733335</v>
       </c>
       <c r="R17">
-        <v>3.164321377823983</v>
+        <v>0.8393172339360001</v>
       </c>
       <c r="S17">
-        <v>0.0001694801441627226</v>
+        <v>4.45103117936961E-06</v>
       </c>
       <c r="T17">
-        <v>0.0001694801441627226</v>
+        <v>6.042287706535276E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>67.29785675020671</v>
+        <v>1.722832</v>
       </c>
       <c r="H18">
-        <v>67.29785675020671</v>
+        <v>5.168496</v>
       </c>
       <c r="I18">
-        <v>0.04017348224095456</v>
+        <v>0.000968914462885661</v>
       </c>
       <c r="J18">
-        <v>0.04017348224095456</v>
+        <v>0.00103085135705228</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.7698411407019</v>
+        <v>2.949111</v>
       </c>
       <c r="N18">
-        <v>6.7698411407019</v>
+        <v>8.847333000000001</v>
       </c>
       <c r="O18">
-        <v>0.6074051537697821</v>
+        <v>0.2502796940750712</v>
       </c>
       <c r="P18">
-        <v>0.6074051537697821</v>
+        <v>0.319341801654516</v>
       </c>
       <c r="Q18">
-        <v>455.5957993086125</v>
+        <v>5.080822802352001</v>
       </c>
       <c r="R18">
-        <v>455.5957993086125</v>
+        <v>45.72740522116801</v>
       </c>
       <c r="S18">
-        <v>0.02440158015803461</v>
+        <v>0.0002424996153559352</v>
       </c>
       <c r="T18">
-        <v>0.02440158015803461</v>
+        <v>0.0003291939295990779</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>67.29785675020671</v>
+        <v>1.722832</v>
       </c>
       <c r="H19">
-        <v>67.29785675020671</v>
+        <v>5.168496</v>
       </c>
       <c r="I19">
-        <v>0.04017348224095456</v>
+        <v>0.000968914462885661</v>
       </c>
       <c r="J19">
-        <v>0.04017348224095456</v>
+        <v>0.00103085135705228</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.829257075142636</v>
+        <v>0.8102765000000001</v>
       </c>
       <c r="N19">
-        <v>0.829257075142636</v>
+        <v>1.620553</v>
       </c>
       <c r="O19">
-        <v>0.07440278298605235</v>
+        <v>0.06876504632623846</v>
       </c>
       <c r="P19">
-        <v>0.07440278298605235</v>
+        <v>0.05849336909740267</v>
       </c>
       <c r="Q19">
-        <v>55.80722385204452</v>
+        <v>1.395970283048</v>
       </c>
       <c r="R19">
-        <v>55.80722385204452</v>
+        <v>8.375821698288002</v>
       </c>
       <c r="S19">
-        <v>0.00298901888096777</v>
+        <v>6.662744792649494E-05</v>
       </c>
       <c r="T19">
-        <v>0.00298901888096777</v>
+        <v>6.029796891261745E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>67.29785675020671</v>
+        <v>4.12431</v>
       </c>
       <c r="H20">
-        <v>67.29785675020671</v>
+        <v>12.37293</v>
       </c>
       <c r="I20">
-        <v>0.04017348224095456</v>
+        <v>0.002319496972672878</v>
       </c>
       <c r="J20">
-        <v>0.04017348224095456</v>
+        <v>0.002467768511615926</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.73648285676271</v>
+        <v>6.834606</v>
       </c>
       <c r="N20">
-        <v>2.73648285676271</v>
+        <v>13.669212</v>
       </c>
       <c r="O20">
-        <v>0.2455233078376184</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P20">
-        <v>0.2455233078376184</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q20">
-        <v>184.1594312938133</v>
+        <v>28.18803387186</v>
       </c>
       <c r="R20">
-        <v>184.1594312938133</v>
+        <v>169.12820323116</v>
       </c>
       <c r="S20">
-        <v>0.009863526247154983</v>
+        <v>0.001345370157054446</v>
       </c>
       <c r="T20">
-        <v>0.009863526247154983</v>
+        <v>0.001217562587652003</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>67.29785675020671</v>
+        <v>4.12431</v>
       </c>
       <c r="H21">
-        <v>67.29785675020671</v>
+        <v>12.37293</v>
       </c>
       <c r="I21">
-        <v>0.04017348224095456</v>
+        <v>0.002319496972672878</v>
       </c>
       <c r="J21">
-        <v>0.04017348224095456</v>
+        <v>0.002467768511615926</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.809930450773398</v>
+        <v>0.856297</v>
       </c>
       <c r="N21">
-        <v>0.809930450773398</v>
+        <v>2.568891</v>
       </c>
       <c r="O21">
-        <v>0.07266875540654688</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P21">
-        <v>0.07266875540654688</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q21">
-        <v>54.50658345377848</v>
+        <v>3.53163428007</v>
       </c>
       <c r="R21">
-        <v>54.50658345377848</v>
+        <v>31.78470852063</v>
       </c>
       <c r="S21">
-        <v>0.002919356954797182</v>
+        <v>0.0001685593038392046</v>
       </c>
       <c r="T21">
-        <v>0.002919356954797182</v>
+        <v>0.0002288197427442007</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>199.653791290369</v>
+        <v>4.12431</v>
       </c>
       <c r="H22">
-        <v>199.653791290369</v>
+        <v>12.37293</v>
       </c>
       <c r="I22">
-        <v>0.1191834097854573</v>
+        <v>0.002319496972672878</v>
       </c>
       <c r="J22">
-        <v>0.1191834097854573</v>
+        <v>0.002467768511615926</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>6.7698411407019</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N22">
-        <v>6.7698411407019</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O22">
-        <v>0.6074051537697821</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P22">
-        <v>0.6074051537697821</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q22">
-        <v>1351.624450174651</v>
+        <v>1.15002397517</v>
       </c>
       <c r="R22">
-        <v>1351.624450174651</v>
+        <v>10.35021577653</v>
       </c>
       <c r="S22">
-        <v>0.07239261734754263</v>
+        <v>5.488882066497773E-05</v>
       </c>
       <c r="T22">
-        <v>0.07239261734754263</v>
+        <v>7.451173289178931E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>199.653791290369</v>
+        <v>4.12431</v>
       </c>
       <c r="H23">
-        <v>199.653791290369</v>
+        <v>12.37293</v>
       </c>
       <c r="I23">
-        <v>0.1191834097854573</v>
+        <v>0.002319496972672878</v>
       </c>
       <c r="J23">
-        <v>0.1191834097854573</v>
+        <v>0.002467768511615926</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.829257075142636</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N23">
-        <v>0.829257075142636</v>
+        <v>0.162391</v>
       </c>
       <c r="O23">
-        <v>0.07440278298605235</v>
+        <v>0.004593832943842499</v>
       </c>
       <c r="P23">
-        <v>0.07440278298605235</v>
+        <v>0.005861453899438226</v>
       </c>
       <c r="Q23">
-        <v>165.5643190065897</v>
+        <v>0.22325027507</v>
       </c>
       <c r="R23">
-        <v>165.5643190065897</v>
+        <v>2.00925247563</v>
       </c>
       <c r="S23">
-        <v>0.008867577373805125</v>
+        <v>1.065538160620761E-05</v>
       </c>
       <c r="T23">
-        <v>0.008867577373805125</v>
+        <v>1.446471136532204E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>199.653791290369</v>
+        <v>4.12431</v>
       </c>
       <c r="H24">
-        <v>199.653791290369</v>
+        <v>12.37293</v>
       </c>
       <c r="I24">
-        <v>0.1191834097854573</v>
+        <v>0.002319496972672878</v>
       </c>
       <c r="J24">
-        <v>0.1191834097854573</v>
+        <v>0.002467768511615926</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.73648285676271</v>
+        <v>2.949111</v>
       </c>
       <c r="N24">
-        <v>2.73648285676271</v>
+        <v>8.847333000000001</v>
       </c>
       <c r="O24">
-        <v>0.2455233078376184</v>
+        <v>0.2502796940750712</v>
       </c>
       <c r="P24">
-        <v>0.2455233078376184</v>
+        <v>0.319341801654516</v>
       </c>
       <c r="Q24">
-        <v>546.3491771537749</v>
+        <v>12.16304798841</v>
       </c>
       <c r="R24">
-        <v>546.3491771537749</v>
+        <v>109.46743189569</v>
       </c>
       <c r="S24">
-        <v>0.02926230500989185</v>
+        <v>0.0005805229927286218</v>
       </c>
       <c r="T24">
-        <v>0.02926230500989185</v>
+        <v>0.0007880616425657133</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>199.653791290369</v>
+        <v>4.12431</v>
       </c>
       <c r="H25">
-        <v>199.653791290369</v>
+        <v>12.37293</v>
       </c>
       <c r="I25">
-        <v>0.1191834097854573</v>
+        <v>0.002319496972672878</v>
       </c>
       <c r="J25">
-        <v>0.1191834097854573</v>
+        <v>0.002467768511615926</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.809930450773398</v>
+        <v>0.8102765000000001</v>
       </c>
       <c r="N25">
-        <v>0.809930450773398</v>
+        <v>1.620553</v>
       </c>
       <c r="O25">
-        <v>0.07266875540654688</v>
+        <v>0.06876504632623846</v>
       </c>
       <c r="P25">
-        <v>0.07266875540654688</v>
+        <v>0.05849336909740267</v>
       </c>
       <c r="Q25">
-        <v>161.7056851784265</v>
+        <v>3.341831471715</v>
       </c>
       <c r="R25">
-        <v>161.7056851784265</v>
+        <v>20.05098883029</v>
       </c>
       <c r="S25">
-        <v>0.00866091005421764</v>
+        <v>0.0001595003167794204</v>
       </c>
       <c r="T25">
-        <v>0.00866091005421764</v>
+        <v>0.0001443480943968984</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>70.81572733333333</v>
+      </c>
+      <c r="H26">
+        <v>212.447182</v>
+      </c>
+      <c r="I26">
+        <v>0.03982650798977153</v>
+      </c>
+      <c r="J26">
+        <v>0.04237237793482528</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.834606</v>
+      </c>
+      <c r="N26">
+        <v>13.669212</v>
+      </c>
+      <c r="O26">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P26">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q26">
+        <v>483.997594926764</v>
+      </c>
+      <c r="R26">
+        <v>2903.985569560584</v>
+      </c>
+      <c r="S26">
+        <v>0.0231004376985172</v>
+      </c>
+      <c r="T26">
+        <v>0.0209059406830311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>70.81572733333333</v>
+      </c>
+      <c r="H27">
+        <v>212.447182</v>
+      </c>
+      <c r="I27">
+        <v>0.03982650798977153</v>
+      </c>
+      <c r="J27">
+        <v>0.04237237793482528</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.856297</v>
+      </c>
+      <c r="N27">
+        <v>2.568891</v>
+      </c>
+      <c r="O27">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P27">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q27">
+        <v>60.63929486835133</v>
+      </c>
+      <c r="R27">
+        <v>545.753653815162</v>
+      </c>
+      <c r="S27">
+        <v>0.002894217384283334</v>
+      </c>
+      <c r="T27">
+        <v>0.00392890847454648</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>70.81572733333333</v>
+      </c>
+      <c r="H28">
+        <v>212.447182</v>
+      </c>
+      <c r="I28">
+        <v>0.03982650798977153</v>
+      </c>
+      <c r="J28">
+        <v>0.04237237793482528</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P28">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q28">
+        <v>19.74628101486911</v>
+      </c>
+      <c r="R28">
+        <v>177.716529133822</v>
+      </c>
+      <c r="S28">
+        <v>0.0009424586798420328</v>
+      </c>
+      <c r="T28">
+        <v>0.001279390385203614</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>70.81572733333333</v>
+      </c>
+      <c r="H29">
+        <v>212.447182</v>
+      </c>
+      <c r="I29">
+        <v>0.03982650798977153</v>
+      </c>
+      <c r="J29">
+        <v>0.04237237793482528</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.162391</v>
+      </c>
+      <c r="O29">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P29">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q29">
+        <v>3.833278925795778</v>
+      </c>
+      <c r="R29">
+        <v>34.499510332162</v>
+      </c>
+      <c r="S29">
+        <v>0.000182956324441619</v>
+      </c>
+      <c r="T29">
+        <v>0.0002483637398745519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>70.81572733333333</v>
+      </c>
+      <c r="H30">
+        <v>212.447182</v>
+      </c>
+      <c r="I30">
+        <v>0.03982650798977153</v>
+      </c>
+      <c r="J30">
+        <v>0.04237237793482528</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.949111</v>
+      </c>
+      <c r="N30">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P30">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q30">
+        <v>208.843440451734</v>
+      </c>
+      <c r="R30">
+        <v>1879.590964065606</v>
+      </c>
+      <c r="S30">
+        <v>0.009967766235758398</v>
+      </c>
+      <c r="T30">
+        <v>0.01353127151009316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>70.81572733333333</v>
+      </c>
+      <c r="H31">
+        <v>212.447182</v>
+      </c>
+      <c r="I31">
+        <v>0.03982650798977153</v>
+      </c>
+      <c r="J31">
+        <v>0.04237237793482528</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N31">
+        <v>1.620553</v>
+      </c>
+      <c r="O31">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P31">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q31">
+        <v>57.38031968860767</v>
+      </c>
+      <c r="R31">
+        <v>344.281918131646</v>
+      </c>
+      <c r="S31">
+        <v>0.002738671666928946</v>
+      </c>
+      <c r="T31">
+        <v>0.002478503142076376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>207.127739</v>
+      </c>
+      <c r="H32">
+        <v>414.255478</v>
+      </c>
+      <c r="I32">
+        <v>0.1164878885357982</v>
+      </c>
+      <c r="J32">
+        <v>0.08262284069923649</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.834606</v>
+      </c>
+      <c r="N32">
+        <v>13.669212</v>
+      </c>
+      <c r="O32">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P32">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q32">
+        <v>1415.636487735834</v>
+      </c>
+      <c r="R32">
+        <v>5662.545950943336</v>
+      </c>
+      <c r="S32">
+        <v>0.06756608469022996</v>
+      </c>
+      <c r="T32">
+        <v>0.04076495799642424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>207.127739</v>
+      </c>
+      <c r="H33">
+        <v>414.255478</v>
+      </c>
+      <c r="I33">
+        <v>0.1164878885357982</v>
+      </c>
+      <c r="J33">
+        <v>0.08262284069923649</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.856297</v>
+      </c>
+      <c r="N33">
+        <v>2.568891</v>
+      </c>
+      <c r="O33">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P33">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q33">
+        <v>177.362861522483</v>
+      </c>
+      <c r="R33">
+        <v>1064.177169134898</v>
+      </c>
+      <c r="S33">
+        <v>0.008465248124323456</v>
+      </c>
+      <c r="T33">
+        <v>0.007661065883855796</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>207.127739</v>
+      </c>
+      <c r="H34">
+        <v>414.255478</v>
+      </c>
+      <c r="I34">
+        <v>0.1164878885357982</v>
+      </c>
+      <c r="J34">
+        <v>0.08262284069923649</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P34">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q34">
+        <v>57.75556778533967</v>
+      </c>
+      <c r="R34">
+        <v>346.533406712038</v>
+      </c>
+      <c r="S34">
+        <v>0.002756581663529975</v>
+      </c>
+      <c r="T34">
+        <v>0.002494711723552667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>207.127739</v>
+      </c>
+      <c r="H35">
+        <v>414.255478</v>
+      </c>
+      <c r="I35">
+        <v>0.1164878885357982</v>
+      </c>
+      <c r="J35">
+        <v>0.08262284069923649</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N35">
+        <v>0.162391</v>
+      </c>
+      <c r="O35">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P35">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q35">
+        <v>11.21189355464967</v>
+      </c>
+      <c r="R35">
+        <v>67.27136132789801</v>
+      </c>
+      <c r="S35">
+        <v>0.0005351258999144029</v>
+      </c>
+      <c r="T35">
+        <v>0.0004842899717992031</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>207.127739</v>
+      </c>
+      <c r="H36">
+        <v>414.255478</v>
+      </c>
+      <c r="I36">
+        <v>0.1164878885357982</v>
+      </c>
+      <c r="J36">
+        <v>0.08262284069923649</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.949111</v>
+      </c>
+      <c r="N36">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P36">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q36">
+        <v>610.842693490029</v>
+      </c>
+      <c r="R36">
+        <v>3665.056160940174</v>
+      </c>
+      <c r="S36">
+        <v>0.02915455310619058</v>
+      </c>
+      <c r="T36">
+        <v>0.02638492680670825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>207.127739</v>
+      </c>
+      <c r="H37">
+        <v>414.255478</v>
+      </c>
+      <c r="I37">
+        <v>0.1164878885357982</v>
+      </c>
+      <c r="J37">
+        <v>0.08262284069923649</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N37">
+        <v>1.620553</v>
+      </c>
+      <c r="O37">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P37">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q37">
+        <v>167.8307394098335</v>
+      </c>
+      <c r="R37">
+        <v>671.322957639334</v>
+      </c>
+      <c r="S37">
+        <v>0.008010295051609868</v>
+      </c>
+      <c r="T37">
+        <v>0.004832888316896343</v>
       </c>
     </row>
   </sheetData>
